--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3897.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3897.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.833714384302358</v>
+        <v>1.546166777610779</v>
       </c>
       <c r="B1">
-        <v>1.949844316990844</v>
+        <v>2.447568416595459</v>
       </c>
       <c r="C1">
-        <v>2.215218893121103</v>
+        <v>4.516322135925293</v>
       </c>
       <c r="D1">
-        <v>3.478030270685842</v>
+        <v>4.358202457427979</v>
       </c>
       <c r="E1">
-        <v>4.021890140720258</v>
+        <v>1.409067153930664</v>
       </c>
     </row>
   </sheetData>
